--- a/biology/Zoologie/Geophis_nasalis/Geophis_nasalis.xlsx
+++ b/biology/Zoologie/Geophis_nasalis/Geophis_nasalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geophis nasalis  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geophis nasalis  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre entre 600 et 1 500 m d'altitude au Chiapas au Mexique et au Guatemala[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre entre 600 et 1 500 m d'altitude au Chiapas au Mexique et au Guatemala.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
         </is>
